--- a/TweetsColetadosEconomia.xlsx
+++ b/TweetsColetadosEconomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sentimento</t>
+          <t>Sentimento1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sentimento2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SentimentoFinal</t>
         </is>
       </c>
     </row>
@@ -456,15 +466,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:38:23 +0000 2021</t>
+          <t>Sat Jul 24 17:15:02 +0000 2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Produção de aço bruto do #Brasil cresce 24% no primeiro semestre #jr1 #redepress https://t.co/h5XGKUJwI7 #economia</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Serpro anuncia programa de benefícios voltado para startups https://t.co/XNV4ltZt3N #F5Online #economia #manchetes #campusparty #estatal #governofederal #startups #tecnologia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -472,46 +496,265 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Sat Jul 24 17:12:32 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Poluição visual: cidade americana de Massena quer regulamentar locais para a mineração cripto
+#massena #novayork #eua #economia #poluiçãovisual #mineraçãocripto #criptomoedas #bitcoin #btc #decrypt #leiacryptotimes https://t.co/gVEk0UoJls</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:47:14 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>#24Jul Bolsa de Sao Paulo cerró en rojo https://t.co/pspVpYQkrs
+#NoticieroVenevision #Economía #BolsaDeSaoPaulo https://t.co/cP0NyzX1dt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:45:03 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>#ECONOMIA | 💸 Novo ministério comandado por Onyx ameaça tirar 85% do orçamento da Economia https://t.co/fS1cR6Xxy6 https://t.co/J3m3WiPDNU</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:16:53 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>@bokomoko @lnarloch Paz e bem criança... estamos com #Bolsonaro nas decisões inteligentes. 
+Acalme teu ódio e coração. ❤
+🏳️‍🌈🇧🇷   #BOLSONARO2022 
+#gaysdedireita #gaysconservadores #economialiberal #economia #GaysForEconomy #orgulhodeserhomem #pride #LGBT #LGBTQsNaMidia #LGBTQIA #BolsonaroTemRazao</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:04:53 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Você sabe o que é Fundo Eleitoral?
+.
+Confira no link abaixo!
+.
+https://t.co/RZ4sNaEWfM
+.
+#governo #fundoeleitoral #economia #fundo #eleições #custo #brasil #governo #notícias #economiabrasileira #bolsonaro #boletimeconômicoasileira #bolsonaro #boletimeconômico https://t.co/pHWLtoAy93</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:38:23 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Produção de aço bruto do #Brasil cresce 24% no primeiro semestre #jr1 #redepress https://t.co/h5XGKUJwI7 #economia</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Sat Jul 24 15:36:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Empreendedores negros são os que mais tiveram crédito negado durante a pandemia 
 #economia #direitoshumanos #empreendedorismo 
 https://t.co/6pEMnr4NzY</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:15:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://t.co/1CQAvizTy5
 Algumas considerações dobre o teto de gastos
 #Tetodegastos #economia</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:42:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Introdução à Economia do Trabalho: Teorias e Políticas
 #Introdução #Economia #Trabalho #Teorias #Políticas
@@ -519,150 +762,276 @@
 -&amp;gt; https://t.co/WGsscFfuWO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:37:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Costa diz que Portugal vai contar com “o dobro” de fundos comunitários para inve https://t.co/rqGVS8JmB3 #AntónioCosta #Economia #Política</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:10:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>LULA  @LiloVLOG
  #politica #o #pol #tica #brasil #bolsonaro #covid #a #coronavirus #italia #n #noticias #economia #governo #argentina #eleicoes #news #liberalismo #politicaitaliana #elei #s #democracia #lavajato #m #politics #salvini #lega #es #liberal #bhfyp https://t.co/x8cdKhua2u</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Associação de Comercio Exterior do Brasil – AEB prevê recorde das exportações brasileiras em 2021, leia mais em https://t.co/zyU4X3dTWW
 #siderurgiabrasil #siderurgia #aço #indústria #economia #notícias https://t.co/KPAdSlVZwD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:00:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Mega-Sena pode pagar prêmio de R$ 7 milhões neste sábado (24).
 #megasena #sorteio #quina #quadra #milhoes #economia #faroldabahia
 https://t.co/ADJMT7Rzz1</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:55:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>#Economia | Agricultores do Vale do Jari recebem financiamento para investir no manejo de açaí 🌱 https://t.co/Tq9ELatVXN</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:54:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>#Economia: Bahia é responsável por mais de 30% das frutas do país com liderança da região de Juazeiro na exportação de manga e uva https://t.co/G0Eld4n7yX</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:54:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>#Economia: Bahia é responsável por mais de 30% das frutas do país com liderança da região de Juazeiro na exportação de manga e uva https://t.co/Ddt3J2ubqc</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:38:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Governo desbloqueia todo o Orçamento de 2021 #jr1 #redepress https://t.co/7DyTVaod3E #brasil #economia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:35:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Segue lá, galera. Estou começando a criar conteúdo 
 https://t.co/jgG0zYGLwi
@@ -672,34 +1041,62 @@
 #FontesdeRenda</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:35:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>#JairBolsonaro #ForaBolsonaro #DitaduraNuncaMais  #Somos70porcento #ImpeachmentBolsonaro #Economia #PIB O fracasso desse governo é em qualquer aspecto que olhemos: econômico,social,ético,moral... https://t.co/wQFiGaULt2 via @exame</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:31:36 +0000 2021</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Baixe o aplicativo Rappi no seu celular;
 Menu, Cupons;
@@ -717,18 +1114,32 @@
 #AppRappi</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:31:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Baixe o aplicativo Shell Box no seu celular;
 Clique no menu Inserir código promocional;
@@ -747,18 +1158,32 @@
 #etanol</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:30:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Baixe o aplicativo 99Taxi no seu celular;
 Clique no menu, Cupom de desconto;
@@ -775,84 +1200,154 @@
 #sabado</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:30:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Nascidos em julhos recebem auxílio emergencial neste sábado https://t.co/QPQuwJQrxZ #Brasil #Destaques #Economia https://t.co/sCLhKLM1Hx</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:30:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>#Brasil #Destaques #Economia Nascidos em julhos recebem auxílio emergencial neste sábado https://t.co/4mdBVe82I3 https://t.co/7I04VNdIIL</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:26:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>#Economia | Minha Primeira Empresa: Governo prepara candidatos para abertura e legalização de negócios 🏧 https://t.co/uz39vDTMZ0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:09:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>ISSO NÃO VAI LONGE
 🏳️‍🌈🇧🇷  JÁ É #BOLSONARO2022 
 #gaysdedireita #gaysconservadores #economialiberal #economia #GaysForEconomy #orgulhodeserhomem #pride #LGBT #LGBTQsNaMidia #LGBTQIA+ #BolsonaroTemRazao https://t.co/v80rzdLljz</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:00:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Mais uma avaliação positiva. Será sempre um prazer te atender, José. Conte com a gente! 😁
 📲 (33) 99978-0937
@@ -860,121 +1355,219 @@
 @wegsolar @g5solar https://t.co/xErqGx3LAw</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:56:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>@samanthaschmutz CHORA A VIÚVA DA #ROUANET E DO #PAULOGUSTAVO... PQ? SABE QUE SERÁ FADADA AO ESQUECIMENTO. 
 🏳️‍🌈🇧🇷  JÁ É #BOLSONARO2022 
 #gaysdedireita #gaysconservadores #economialiberal #economia #GaysForEconomy #orgulhodeserhomem #pride #LGBT #LGBTQsNaMidia #LGBTQIA+ #BolsonaroTemRazao</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:50:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>#PT #PSOL #PCdoB, a favor da corrupção. Porque será né?! 🤣
 🏳️‍🌈🇧🇷  JÁ É #BOLSONARO2022 
 #gaysdedireita #gaysconservadores #economialiberal #economia #GaysForEconomy #orgulhodeserhomem #pride #LGBT #LGBTQsNaMidia #LGBTQIA+ #BolsonaroTemRazao https://t.co/t0Eixbk9UY</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:45:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Caixa paga hoje auxílio emergencial a nascidos em julho https://t.co/3nStSkwTk3 #F5Online #destaque2 #economia #caixa #nascidosemjulho #pagamento</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:12:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Mais 2,4 milhões recebem 4ª parcela do auxílio neste sábado (24).
 #milhoes #auxilioemergencial #economia #CaixaTem #beneficiarios #faroldabahia
 https://t.co/orqHcyZ5V1</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:57:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Um "muito obrigado" à Rita Nabeiro que nos presenteou com uma mensagem especial. ➡ https://t.co/djyFntf7al  #Empresas #Negócios #PME #Empresarios #Economia #B2B #empreendedorismo</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:14:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Novo Banco vende dívidas do Grupo Lena e da Urbanos de Alfredo Casimiro https://t.co/YIayffZUqr 
 #comlusofonas #novobanco #nb #grupolena #urbanos #alfredocasimiro #Vende #dividas #lesados #lesadosnb #portugal #Economia #</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Sat Jul 24 09:44:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Ipea: exportações do agronegócio sobem 20,9% no 1º semestre
 A alta no preço das commodities (bens primários com cotação internacional) fez as exportações do
@@ -982,106 +1575,21 @@
 https://t.co/XaGWWjHDOr</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 05:24:08 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>quase uma hora sem beber e ainda tô bêbada
-#economia 😁</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 04:39:34 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Brumado continua vendendo a gasolina mais cara da Bahia https://t.co/HrfEVoRNLP #BrumadoeRegião #Destaques #Economia https://t.co/bW4X8eWBMu</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 04:39:33 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>#BrumadoeRegião #Destaques #Economia Brumado continua vendendo a gasolina mais cara da Bahia https://t.co/SKG9p2710a https://t.co/EFzLE5KfSw</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 03:40:21 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SÃO PAULO – Pinhão é um dos produtos no foco da PGPM-Bio #jr1 #redepress https://t.co/mH3dwOZ5ZR #agronegócio #economia</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:39:08 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Categorias como advogados e médicos, além de representantes da indústria e até do mercado financeiro, querem flexibilizar a proposta para contarem com isenções parciais ou integrais no uso do instrumento
-#Economia #Taxação #Dividendos  https://t.co/VArFyEXroS</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 01:27:33 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Esta análise é de Luiz Carlos Corrêa Carvalho, diretor da CANAPLAN, na entrevista da edição de julho da Agroanalysis.
-➡️ Assine a Agroanalysis e leia a entrevista. - #fgvagro #agroanalysis #agro #agricultura #agronegocio #economia https://t.co/3dHiYu0LLj</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1089,15 +1597,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:26:26 +0000 2021</t>
+          <t>Sat Jul 24 05:24:08 +0000 2021</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O etanol é o que acumula maior alta nos últimos 12 meses: está 49,08% mais caro, segundo os dados do IPCA-15 divulgados nesta sexta-feira (23) pelo IBGE (Instituto Brasileiro de Geografia e Estatística). #etanol #economia https://t.co/9FHF9vQI0v</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>quase uma hora sem beber e ainda tô bêbada
+#economia 😁</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1105,15 +1628,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:26:22 +0000 2021</t>
+          <t>Sat Jul 24 04:39:34 +0000 2021</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O etanol é o que acumula maior alta nos últimos 12 meses: está 49,08% mais caro, segundo os dados do IPCA-15 divulgados nesta sexta-feira (23) pelo IBGE (Instituto Brasileiro de Geografia e Estatística). #etanol #economia https://t.co/X8Vt3NZaBL</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Brumado continua vendendo a gasolina mais cara da Bahia https://t.co/HrfEVoRNLP #BrumadoeRegião #Destaques #Economia https://t.co/bW4X8eWBMu</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1121,16 +1658,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:13:32 +0000 2021</t>
+          <t>Sat Jul 24 04:39:33 +0000 2021</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Se organizarmos direitinho, da pra fazer a troca dos cubanos que querem liberdade pelos brasileiros que querem o comunismo!!!
-#politica #o #democracia #tica #brasil #bolsonaro #covid #a #coronavirus #italia #n #noticias #economia #governo #argentina #eleicoes #news #liberalismo https://t.co/hMzxtTHztL</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#BrumadoeRegião #Destaques #Economia Brumado continua vendendo a gasolina mais cara da Bahia https://t.co/SKG9p2710a https://t.co/EFzLE5KfSw</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1138,15 +1688,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:11:56 +0000 2021</t>
+          <t>Sat Jul 24 03:40:21 +0000 2021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O IPCA-15 subiu 0,72% com relação ao mês anterior, maior variação para julho desde 2004, segundo dados divulgados pelo IBGE (Instituto Brasileiro de Geografia e Estatística) nesta sexta-feira (23). #luz #economia https://t.co/PjZnEwTkdv</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>SÃO PAULO – Pinhão é um dos produtos no foco da PGPM-Bio #jr1 #redepress https://t.co/mH3dwOZ5ZR #agronegócio #economia</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1154,15 +1718,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:11:50 +0000 2021</t>
+          <t>Sat Jul 24 02:39:08 +0000 2021</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O IPCA-15 subiu 0,72% com relação ao mês anterior, maior variação para julho desde 2004, segundo dados divulgados pelo IBGE (Instituto Brasileiro de Geografia e Estatística) nesta sexta-feira (23). #luz #economia https://t.co/22sndsYsfp</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Categorias como advogados e médicos, além de representantes da indústria e até do mercado financeiro, querem flexibilizar a proposta para contarem com isenções parciais ou integrais no uso do instrumento
+#Economia #Taxação #Dividendos  https://t.co/VArFyEXroS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1170,15 +1749,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:00:10 +0000 2021</t>
+          <t>Sat Jul 24 01:27:33 +0000 2021</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O número de #despedimentos coletivos mais do que duplicou em 2020, abrangendo um total de 8.000 trabalhadores, segundo o relatório hoje divulgado pelo Centro de Relações Laborais (CRL). #CRISE #CRL-CENTRODERELAÇÕESLABORAIS #DESEMPREGO #DESPEDIMENTOS #ECONOMIA #EMPREGO #T... https://t.co/AzRPKra5m2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Esta análise é de Luiz Carlos Corrêa Carvalho, diretor da CANAPLAN, na entrevista da edição de julho da Agroanalysis.
+➡️ Assine a Agroanalysis e leia a entrevista. - #fgvagro #agroanalysis #agro #agricultura #agronegocio #economia https://t.co/3dHiYu0LLj</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1186,16 +1780,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sat Jul 24 00:00:00 +0000 2021</t>
+          <t>Sat Jul 24 00:26:26 +0000 2021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Niels Bohr, ganhador do Prêmio Nobel, já dizia que previsões são muito perigosas, principalmente a respeito do futuro. E ele era físico. Imagine se tivesse que fazer previsões econômicas, ou pior, políticas…
-#previsoes #economia #politica https://t.co/d8haN5RGyP</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>O etanol é o que acumula maior alta nos últimos 12 meses: está 49,08% mais caro, segundo os dados do IPCA-15 divulgados nesta sexta-feira (23) pelo IBGE (Instituto Brasileiro de Geografia e Estatística). #etanol #economia https://t.co/9FHF9vQI0v</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1203,133 +1810,413 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Sat Jul 24 00:26:22 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>O etanol é o que acumula maior alta nos últimos 12 meses: está 49,08% mais caro, segundo os dados do IPCA-15 divulgados nesta sexta-feira (23) pelo IBGE (Instituto Brasileiro de Geografia e Estatística). #etanol #economia https://t.co/X8Vt3NZaBL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:13:32 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Se organizarmos direitinho, da pra fazer a troca dos cubanos que querem liberdade pelos brasileiros que querem o comunismo!!!
+#politica #o #democracia #tica #brasil #bolsonaro #covid #a #coronavirus #italia #n #noticias #economia #governo #argentina #eleicoes #news #liberalismo https://t.co/hMzxtTHztL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:11:56 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>O IPCA-15 subiu 0,72% com relação ao mês anterior, maior variação para julho desde 2004, segundo dados divulgados pelo IBGE (Instituto Brasileiro de Geografia e Estatística) nesta sexta-feira (23). #luz #economia https://t.co/PjZnEwTkdv</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:11:50 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>O IPCA-15 subiu 0,72% com relação ao mês anterior, maior variação para julho desde 2004, segundo dados divulgados pelo IBGE (Instituto Brasileiro de Geografia e Estatística) nesta sexta-feira (23). #luz #economia https://t.co/22sndsYsfp</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:00:10 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>O número de #despedimentos coletivos mais do que duplicou em 2020, abrangendo um total de 8.000 trabalhadores, segundo o relatório hoje divulgado pelo Centro de Relações Laborais (CRL). #CRISE #CRL-CENTRODERELAÇÕESLABORAIS #DESEMPREGO #DESPEDIMENTOS #ECONOMIA #EMPREGO #T... https://t.co/AzRPKra5m2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:00:00 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Niels Bohr, ganhador do Prêmio Nobel, já dizia que previsões são muito perigosas, principalmente a respeito do futuro. E ele era físico. Imagine se tivesse que fazer previsões econômicas, ou pior, políticas…
+#previsoes #economia #politica https://t.co/d8haN5RGyP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Fri Jul 23 23:57:28 +0000 2021</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Pif Paf compra a Uniaves e vai dobrar produção de frango e gerar mais empregos
 #pifpaf #emprego #economia #uniaves 
 https://t.co/zJXXC5QXxx https://t.co/MN4uubN9aH</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:25:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>#DanielLopez #Política #Economia
 Acabou a palhaçada.
 https://t.co/DDGR15LY7j</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:23:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>#Economia #Montadoras #Carro 
 68% dos carros vendidos no país atualmente custam acima de R$ 70 mil
  https://t.co/rfC328z8TR</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:00:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>#ECONOMIA | Empresas estudam esvaziar caixa para evitar dividendo com imposto em 2022 - https://t.co/GN6yer63fs https://t.co/HnmsTaPgSv</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:57:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>@bokomoko @lnarloch Não acho ruim,  toda guerra tem ganhos e perdas.... faz parte do jogo.
 🏳️‍🌈🇧🇷  JÁ É #BOLSONARO2022 
 #gaysdedireita #gaysconservadores #economialiberal #economia #GaysForEconomy #orgulhodeserhomem #pride #LGBT #LGBTQsNaMidia #LGBTQIA+ #BolsonaroTemRazao</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:41:59 +0000 2021</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Mercado americano todo em máxima histórica e o Brasil se descolando. O que está acontecendo? A semana foi volátil, mas completamente vazia de dados econômicos. Semana que vêm será o completo oposto, apertem os cintos. #economia #macroeconomia 
 https://t.co/iuHIiZT5t2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:21:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Ministério alerta para site falso que coleta informações de servidores
 #Ministerio #Economia #Alerta #SiteFalso #Cuidado 
 https://t.co/8zM9smDFvk</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:03:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>#MercadoBandNews: Bolsa fecha em baixa pressionada pelo IPCA-15. Juliana Rosa (＠julianarosa_ ) comenta as notícias de economia do dia e entrevista o economista Luiz Roberto Cunha. 
 Saiba mais em:
@@ -1337,89 +2224,159 @@
 #bandnewstv​ #bandnews20anos #Economia #Mercado #Inflação</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:01:15 +0000 2021</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Vamos juntos nesta missão? 🚀
 Vagas para: Analista de Conjuntura Econômica
 #Administracao #MatoGrosso #Economia #Agronegócio #Imea23anos #Vagas #AgroMT #Imea https://t.co/RcyW8yjXyW</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:00:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Cinco anos depois, no calor de mais de 2.000°C, já foram produzidos 13,8 milhões de toneladas de ferro-gusa, leia mais em https://t.co/1NSpCjw7Au
 #siderurgiabrasil #siderurgia #aço #indústria #economia #notícias https://t.co/97OHJPFzo8</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:59:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Veja pessoas ricas que preferem viver de maneira simples
 #lifestyle #negocio #Economia 
 https://t.co/nJ0ysDiqEm</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:51:34 +0000 2021</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://t.co/4LbO6cJJkG
 Como as expectativas de inflação afetam a inflação?
 #economia #inflação #BancoCentral</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:50:58 +0000 2021</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Baixe o aplicativo Ifood no seu celular;
 Escolha um produto (Adicionar), Entre na Aba Cupons;
@@ -1437,104 +2394,21 @@
 #Economia</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:42:54 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Dia dos avós promete movimentar cerca de R$ 600 milhões na economia do Rio. São mais de cinco milhões de consumidores que devem presentear os avós. #Economia #BandNewsFM https://t.co/9Z1eAD7B4Y</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:42:49 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Trabalhar duro p/ minimizar os efeitos da pandemia é o q temos feito no Senado. Com muito diálogo, conseguimos aprovar algumas das nossas propostas p/ atravessar esse momento. Vamos seguir com empenho p/ agilizar a #vacinação, o combate à pandemia e a retomada da nossa #economia! https://t.co/ov9zuLo8cO</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:30:23 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>#ECONOMIA | Relator da reforma do Imposto de Renda diz que vale-refeição não está ameaçado - https://t.co/E1CALK63tX https://t.co/aQ84txloCL</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:25:39 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Maricá vira parada obrigatória para quem busca combustível mais barato https://t.co/xDpGnkOawg #Marica #Combustivel #Gasolina #Precos #Economia</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:22:53 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Bittencourt: se reajustar servidores pode não sobrar espaço ao Bolsa Família https://t.co/FC64UWTPya 
-#bittencourt #teto #gastos #economia #politica #bolsafamilia #mercadonews #mercadonewsoficial</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 21:14:12 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>@antonionetopdt mais uma ótima iniciativa, parabéns à CSB. #Brasil #futuro #desenvolvimento #emprego #economia #crescimento #democracia #inovação #ciência #criatividade #república #ForaBolsonaro</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1542,16 +2416,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:13:31 +0000 2021</t>
+          <t>Fri Jul 23 21:42:54 +0000 2021</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Apesar disso, o índice de intenção de investimento apresentou trajetória de crescimento, refletindo o crescimento das expectativas em relação a demanda e as exportações. 📲 Leia em: https://t.co/vOv1dwaROr
-#ASemanaEconômica #EspiritoSanto #EconomiaCapixaba #economia #ICEI #CNI</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>Dia dos avós promete movimentar cerca de R$ 600 milhões na economia do Rio. São mais de cinco milhões de consumidores que devem presentear os avós. #Economia #BandNewsFM https://t.co/9Z1eAD7B4Y</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1559,16 +2446,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:13:12 +0000 2021</t>
+          <t>Fri Jul 23 21:42:49 +0000 2021</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fechamento do dia!
-#ibov #macro #economia #dolar #investimentos #fintwit https://t.co/7LZI2Rga0F</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>Trabalhar duro p/ minimizar os efeitos da pandemia é o q temos feito no Senado. Com muito diálogo, conseguimos aprovar algumas das nossas propostas p/ atravessar esse momento. Vamos seguir com empenho p/ agilizar a #vacinação, o combate à pandemia e a retomada da nossa #economia! https://t.co/ov9zuLo8cO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1576,16 +2476,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:11:21 +0000 2021</t>
+          <t>Fri Jul 23 21:30:23 +0000 2021</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>🗓 Inflação, reforma do Imposto de Renda e economia americana: Confira o #FiqueporDentro desta semana.
-#EthimosInvestimentos #Economia #Investidor https://t.co/sJPu52iznw</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>#ECONOMIA | Relator da reforma do Imposto de Renda diz que vale-refeição não está ameaçado - https://t.co/E1CALK63tX https://t.co/aQ84txloCL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1593,15 +2506,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:10:21 +0000 2021</t>
+          <t>Fri Jul 23 21:25:39 +0000 2021</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Centro comercial do Barroco badalado com bikes vermelhinhas em Maricá https://t.co/DXkyQSGNAQ #maricá #bicicletas #economia</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>Maricá vira parada obrigatória para quem busca combustível mais barato https://t.co/xDpGnkOawg #Marica #Combustivel #Gasolina #Precos #Economia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1609,15 +2536,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:09:45 +0000 2021</t>
+          <t>Fri Jul 23 21:22:53 +0000 2021</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>#Mercado: Fechamento desta sexta-feira (23) #Investimentos #Dolar #Bitcoin #Economia https://t.co/RGQGbFnivX</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>Bittencourt: se reajustar servidores pode não sobrar espaço ao Bolsa Família https://t.co/FC64UWTPya 
+#bittencourt #teto #gastos #economia #politica #bolsafamilia #mercadonews #mercadonewsoficial</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1625,15 +2567,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:09:19 +0000 2021</t>
+          <t>Fri Jul 23 21:14:12 +0000 2021</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>#Mercado: Maiores Altas e Baixas desta sexta-feira (23) #Investimentos #Ações #Economia https://t.co/NSuMtQRvJ1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>@antonionetopdt mais uma ótima iniciativa, parabéns à CSB. #Brasil #futuro #desenvolvimento #emprego #economia #crescimento #democracia #inovação #ciência #criatividade #república #ForaBolsonaro</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1641,16 +2597,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:08:08 +0000 2021</t>
+          <t>Fri Jul 23 21:13:31 +0000 2021</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Confira o fechamento do mercado desta sexta-feira, 23.
-#educaçãofinanceira #economia #investimentos #bolsadevalores #mercadofinanceiro https://t.co/dDVR9rQrSQ</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>Apesar disso, o índice de intenção de investimento apresentou trajetória de crescimento, refletindo o crescimento das expectativas em relação a demanda e as exportações. 📲 Leia em: https://t.co/vOv1dwaROr
+#ASemanaEconômica #EspiritoSanto #EconomiaCapixaba #economia #ICEI #CNI</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1658,15 +2628,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:05:04 +0000 2021</t>
+          <t>Fri Jul 23 21:13:12 +0000 2021</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Consumidores de baixa renda podem ter até 65% de desconto na conta de luz, diz Coelba https://t.co/szxn64VXMw #Bahia #Destaques #Economia https://t.co/ZVnLHJ1Fzz</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>Fechamento do dia!
+#ibov #macro #economia #dolar #investimentos #fintwit https://t.co/7LZI2Rga0F</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1674,15 +2659,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fri Jul 23 21:05:03 +0000 2021</t>
+          <t>Fri Jul 23 21:11:21 +0000 2021</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>#Bahia #Destaques #Economia Consumidores de baixa renda podem ter até 65% de desconto na conta de luz, diz Coelba https://t.co/rpsJxOSJBe https://t.co/hZmoIlrkfb</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>🗓 Inflação, reforma do Imposto de Renda e economia americana: Confira o #FiqueporDentro desta semana.
+#EthimosInvestimentos #Economia #Investidor https://t.co/sJPu52iznw</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1690,10 +2690,191 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Fri Jul 23 21:10:21 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Centro comercial do Barroco badalado com bikes vermelhinhas em Maricá https://t.co/DXkyQSGNAQ #maricá #bicicletas #economia</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 21:09:45 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>#Mercado: Fechamento desta sexta-feira (23) #Investimentos #Dolar #Bitcoin #Economia https://t.co/RGQGbFnivX</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 21:09:19 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>#Mercado: Maiores Altas e Baixas desta sexta-feira (23) #Investimentos #Ações #Economia https://t.co/NSuMtQRvJ1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 21:08:08 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Confira o fechamento do mercado desta sexta-feira, 23.
+#educaçãofinanceira #economia #investimentos #bolsadevalores #mercadofinanceiro https://t.co/dDVR9rQrSQ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 21:05:04 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Consumidores de baixa renda podem ter até 65% de desconto na conta de luz, diz Coelba https://t.co/szxn64VXMw #Bahia #Destaques #Economia https://t.co/ZVnLHJ1Fzz</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 21:05:03 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>#Bahia #Destaques #Economia Consumidores de baixa renda podem ter até 65% de desconto na conta de luz, diz Coelba https://t.co/rpsJxOSJBe https://t.co/hZmoIlrkfb</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Fri Jul 23 21:02:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>#economia | Segundo levantamento do IBGE, o Índice Nacional de Preços ao Consumidor Amplo – 15, registrou inflação de 0,72% em julho deste ano.
 Veja mais detalhes:
@@ -1701,195 +2882,179 @@
 (Foto: Agência Brasil) https://t.co/OYocuGakj0</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:00:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>#Economia
 CNI: pandemia ainda afeta oferta e custo de matérias-primas https://t.co/2Pa66e9ycE</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:57:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>O dólar fechou a sexta-feira em queda de 0,05 a R$ 5,2105 na compra. 
 #educaçãofinanceira #economia #investimentos #bolsadevalores #mercadofinanceiro</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:55:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Apresentadora da Globo News comenta: "saudade do tempo em que achávamos o dólar caro e ele custava menos que 3 reais". O Ano é 2015 e governo de Dilma! Eh saudade! #brasil #GloboNews
 #Economia #reportagem #Olimpiadas
 https://t.co/rTeDzf1rxy</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:55:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Semana cheia! Seguem as gravações econômicas de vídeo para o Simpi e de podcast para o Acelera Varejo.
 #aceleravarejo #av #economia #embaixadordeeconomia #varejo
 #descomplicandoaeconomia #aeconomiasemgravata #jornadadaeconomia https://t.co/RkyDoOmtZl</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:54:46 +0000 2021</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>E por hoje é só!
 O Ibovespa encerrou o pregão com baixa de 0,87% a 125.052 pontos, isso por que o mercado reagiu aos dados do IPCA-15, que ficou acima do esperado para julho. 
 #educaçãofinanceira #economia #investimentos #bolsadevalores #mercadofinanceiro</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:45:26 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/0F20pq4QQz
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/1xexEDGVhA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:44:06 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Prefeitura de Brumado publicou decreto que regulariza volta as aulas de forma semipresencial https://t.co/65kBmb9BOb #BrumadoeRegião #Destaques #Economia https://t.co/WfPBqLDB8t</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:44:06 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>#BrumadoeRegião #Destaques #Economia Prefeitura de Brumado publicou decreto que regulariza volta as aulas de forma semipresencial https://t.co/9Jmsr7SWjs https://t.co/1AWihSWWAp</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:27:10 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/N77HzDatXR
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/WMmrOgROBi</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:22:08 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/V43Mi6fUYR
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/XzJB91J6Q7</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 20:09:18 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/TjvsPWK81n
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/kABm5xPzOR</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1897,16 +3062,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:08:09 +0000 2021</t>
+          <t>Fri Jul 23 20:45:26 +0000 2021</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/PF5PaZgbFN
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/pEzuoxOz4b</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/0F20pq4QQz
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/1xexEDGVhA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1914,16 +3093,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:02:15 +0000 2021</t>
+          <t>Fri Jul 23 20:44:06 +0000 2021</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/TYsiAguPxs
-#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/Fk6zXu0qag</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Prefeitura de Brumado publicou decreto que regulariza volta as aulas de forma semipresencial https://t.co/65kBmb9BOb #BrumadoeRegião #Destaques #Economia https://t.co/WfPBqLDB8t</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1931,15 +3123,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fri Jul 23 20:00:13 +0000 2021</t>
+          <t>Fri Jul 23 20:44:06 +0000 2021</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>No primeiro semestre, PIB chinês registra alta interanual de 12,7% e atinge R$ 41,9 trilhões, mantendo dinâmica de recuperação econômica #Economia #NotíciasDaChina</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>#BrumadoeRegião #Destaques #Economia Prefeitura de Brumado publicou decreto que regulariza volta as aulas de forma semipresencial https://t.co/9Jmsr7SWjs https://t.co/1AWihSWWAp</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1947,10 +3153,195 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Fri Jul 23 20:27:10 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/N77HzDatXR
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/WMmrOgROBi</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 20:22:08 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/V43Mi6fUYR
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/XzJB91J6Q7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 20:09:18 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/TjvsPWK81n
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/kABm5xPzOR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 20:08:09 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/PF5PaZgbFN
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/pEzuoxOz4b</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 20:02:15 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>IR 2021: Receita libera nesta sexta-feira consulta ao 3º lote de restituição. Beneficiários receberão os créditos no dia 30 de julho. Veja no artigo da CNN Brasil: https://t.co/TYsiAguPxs
+#economia #ir2021 #3lote #restituicao #receitafederal #seguro #mpostoderenda https://t.co/Fk6zXu0qag</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 20:00:13 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No primeiro semestre, PIB chinês registra alta interanual de 12,7% e atinge R$ 41,9 trilhões, mantendo dinâmica de recuperação econômica #Economia #NotíciasDaChina</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Fri Jul 23 20:00:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>PRÊMIO VOZ ATIVA PRORROGA INSCRIÇÕES PARA INCENTIVO DA CULTURA DA INOVAÇÃO
 Confira mais informações no Diário do Comércio
@@ -1958,109 +3349,21 @@
 https://t.co/YroYjqBGCT</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:54:34 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>🇪🇺 Bolsas da Europa fecham em alta firme e Stoxx 600 tem novo recorde histórico.
-#economia #mercado #Brasil #notícias</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:54:25 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>🛒 Magazine Luiza (#MGLU3) levantou R$ 4,55 bilhões com follow-on.
-#economia #mercado #Brasil #notícias</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:54:16 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>🇨🇳🇭🇰🇺🇸 Em meio a disputa sobre Hong Kong, China anuncia sanções contra os EUA.
-#economia #mercado #Brasil #notícias</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:54:08 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>🛢️ Produção de óleo e gás da Petrobras (#PETR4) no pré-sal crescem no segundo semestre de 2021.
-#economia #mercado #Brasil #notícias</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:54:01 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>💉 Estudo  do Canadian Immunization Research Network mostra que a vacina da AstraZeneca é efetiva contra variantes após uma dose. 
-#economia #mercado #Brasil #notícias</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 19:53:03 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Tesouro: média mensal de emissões saltou de R$ 50 bi para R$ 145 bi na pandemia https://t.co/RCeTVNxQX8 
-#tesouro #emissoes #economia #pandemia #mercadonews #mercadonewsoficial</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2068,15 +3371,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fri Jul 23 19:34:56 +0000 2021</t>
+          <t>Fri Jul 23 19:54:34 +0000 2021</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>💰 Desempenho da #economia brasileira atrai negócios e empresa de linha branca anuncia #investimentos de mais de R$240 milhões no país. Acesse @EconomiaSepec https://t.co/gQzGYJtjBL</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>🇪🇺 Bolsas da Europa fecham em alta firme e Stoxx 600 tem novo recorde histórico.
+#economia #mercado #Brasil #notícias</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2084,80 +3402,321 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Fri Jul 23 19:54:25 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>🛒 Magazine Luiza (#MGLU3) levantou R$ 4,55 bilhões com follow-on.
+#economia #mercado #Brasil #notícias</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:54:16 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>🇨🇳🇭🇰🇺🇸 Em meio a disputa sobre Hong Kong, China anuncia sanções contra os EUA.
+#economia #mercado #Brasil #notícias</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:54:08 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>🛢️ Produção de óleo e gás da Petrobras (#PETR4) no pré-sal crescem no segundo semestre de 2021.
+#economia #mercado #Brasil #notícias</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:54:01 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>💉 Estudo  do Canadian Immunization Research Network mostra que a vacina da AstraZeneca é efetiva contra variantes após uma dose. 
+#economia #mercado #Brasil #notícias</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:53:03 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tesouro: média mensal de emissões saltou de R$ 50 bi para R$ 145 bi na pandemia https://t.co/RCeTVNxQX8 
+#tesouro #emissoes #economia #pandemia #mercadonews #mercadonewsoficial</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:34:56 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>💰 Desempenho da #economia brasileira atrai negócios e empresa de linha branca anuncia #investimentos de mais de R$240 milhões no país. Acesse @EconomiaSepec https://t.co/gQzGYJtjBL</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>Fri Jul 23 19:34:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Pandemia ainda prejudica oferta e custo de matérias primas na indústria, diz CNI.
 #pandemia #oferta #custo #economia #materiaprima #CNI #industria #faroldabahia
 https://t.co/Amq2tG4MWe</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:33:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>MARICÁ | A previsão de investimento para o porto é de R$5,3 bilhões e geração de mais de 10 mil empregos formais
 https://t.co/RelFLQMxHq
 #rc24h #maricá #economia #ofatonoato #jornalismo #regiãodoslagos</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:24:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Prévia da inflação fica em 0,72% em julho, maior para o mês desde 2004. Dos nove grupos de produtos e serviços pesquisados, sete tiveram alta de preços em julho. #Economia #BandNewsFM https://t.co/h0IeRfdXp8</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:11:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>O Dia dos Avós deste ano, comemorado na próxima segunda-feira, 26, deve movimentar R$ 600 milhões na economia do estado do Rio de Janeiro.
 Confira: https://t.co/58TtFEVmUS 🌐
 #Economia #diadosavos #RiodeJaneiro</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:09:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Acesse https://t.co/oOnTuuR8VE e saiba mais!
 .
@@ -2167,18 +3726,32 @@
 . https://t.co/o43RYvx7ar</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:09:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Acesse https://t.co/TNKW9qUdoA e saiba mais!
 .
@@ -2188,18 +3761,32 @@
 . https://t.co/uIZclzSxnD</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:08:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Acesse https://t.co/O0TBv5Mj7m e saiba mais!
 .
@@ -2209,18 +3796,62 @@
 . https://t.co/8gWrfZbiVu</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Fri Jul 23 19:01:12 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fila de pessoas aguardando perícia do INSS cai, mas ainda é de quase meio milhão de brasileiros https://t.co/1Jjf5PqB2u #SUDESTENOTICIA #ECONOMIA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:00:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>CORNER EXPRESS VIRA TENDÊNCIA EM BH E NOVA LIMA
 Veja mais no Diário do Comércio
@@ -2228,70 +3859,126 @@
 https://t.co/i20I8X5gL7</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:50:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Falta de matérias-primas impede aumento da produção industrial, relata CNI https://t.co/9D7VcU6jmv #Economia #indústria #matéria-prima #Produção</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:49:40 +0000 2021</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Bolsonaro acusa Instituto Butantan de superfaturamento da CoronaVac; Doria rebate
 Veja mais em: https://t.co/TYMne8ZKPF
 #noticias #informação #economia #politica #politicabrasileira https://t.co/VNPR9EpS5w</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:47:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Sabatina de Mendonça no Senado será na volta do recesso
 Veja mais em: https://t.co/TYMne8ZKPF
 #noticias #informação #economia #politica #politicabrasileira https://t.co/J255zRRnuv</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:44:50 +0000 2021</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Reitero, não se trata de favorecer grandes empresários é apenas garantir a isonomia econômica do nosso país!!
 .
@@ -2302,116 +3989,214 @@
 #IRPF</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:43:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Bharat Biotech, farmacêutica da Índia, produtora da Vacina contra COVID 19 Covaxin, anula contrato com a Precisa Medicamentos, envolvida no escândalo da propina na CPI da COVID.https://t.co/RTeVuplecU #Educação #Cultura #Arte #Economia #MeioAmbiente #Justiça #MPF #STF #STJ #PGR https://t.co/gcUcEjBekc</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:40:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>‘Temos que passar a faca no Sistema S’, diz secretário de Guedes sobre bolsa para jovens https://t.co/NWLjcIDhf0 #F5Online #economia #manchetes #ministériodaeconomia #pauloguedes #sebrae #sesc #sesi #sistemas</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:37:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Homens são as principais vítimas de golpes financeiros, diz pesquisa #jr1 #redepress https://t.co/ieMh6LzDO9 #brasil #economia</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:36:09 +0000 2021</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Lei permite reconversão de escritórios em moradias no Centro de Niterói https://t.co/kfqBqTWXDa #Niteroi #Escritorio #MercadoImobiliario #Lei #Economia</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:34:58 +0000 2021</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Fim da pandemia não trará empregos de volta, avaliam economistas https://t.co/tRuYCpIiXg #desemprego #Economia #pandemia</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:33:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Shiba Inu (SHIB) lança atualização contra rugpull e fica mais próxima de virar DAO.
 ➡️ Veja a matéria completa em https://t.co/w0z928m9QN
 #criptomoedas #bitcoins #bitcoin #blockchain #mineração #news #noticias #investimentos #economia #altcoins #finanças #shibainu #shibaswap https://t.co/7gjq5QImJi</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:28:28 +0000 2021</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Seminários OBC | 08-06-2021 | Caio Vilella
 Neo-chartalismo e a moeda internacional: o papel do petróleo nos pilares do Dólar Soberano 
@@ -2419,34 +4204,62 @@
 #bancocentral #economia #macroeconomia https://t.co/rjq3llZual</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:28:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>#Atenção : Você acompanha o desempenho de alguma empresa de capital aberto? Ou vem estudando algum ativo de perto? Se você respondeu “sim” para pelo menos uma dessas duas perguntas a Inversa tem quer te fazer um convite! Confira no anúncio abaixo 👇#relatório #economia #educação https://t.co/UtBLtrWx1K</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:22:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Agência Energia desenvolve projetos de centrais de aquecimento somente a gás, gerando conforto, economia com inovação e confiabilidade.
 Continue lendo em nosso site!
@@ -2454,51 +4267,93 @@
 #aquecimento #energia #engenharia #projetos #construção #agenciaenergia #economia #gas https://t.co/fSbI0yJ3Tu</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:18:37 +0000 2021</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Nossa gestão se alinha justamente com quem quer fazer o melhor, desburocratizando e apoiando todas as iniciativas que venham oferecer um serviço de qualidade à população. 
 #otrabalhonãopara #jaboataodosguararapes #jaboatao #pernambuco #economia #emprego #renda</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:16:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Secretária de Tesouro dos EUA alerta Congresso sobre limite de dívida https://t.co/EAHqiGJ54z #internacional #eua #janetyellen #economia #dívidas</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:08:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>💊 Pílulas de mercado
 O Ibovespa opera em queda de 0,90%, chegando aos 125.013 pontos.
@@ -2507,102 +4362,186 @@
 #ibov #macro #economia #dolar #investimentos #fintwit</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:02:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Em 2021, 37% dos consumidores pretendem presentear os avós gastando, em média R$ 116,34. O ranking de presentes é liderado por roupas (31,4%), perfumes e cosméticos (26,7%) e cesta de café da manhã (20,9%).
 #DiaDosAvós #Economia</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:01:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>As vovós e vovôs fluminenses devem receber muitos presentes na data dedicada a eles este ano. 
 #DiaDosAvós #Economia https://t.co/DUUYNM2HRB</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:55:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Cabedelo e UFPB fecham parceria nas áreas de turismo e gastronomia https://t.co/FmWTTuTmpA #F5Online #destaque2 #economia #cabedelo #cultura #fortedesantacatarina #frutosdomar #gastronomia #regiãometropolitana #secretariadeturismo #turismo #ufpb</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:46:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Temos #oportunidade para coordenação de Novos Negócios. Procuramos profissional com graduação em #Administração, #Economia, #Marketing ou áreas afins, além de #inglês avançado e experiência em processos de exportação. Inscreva-se: https://t.co/M1MIegf6iV #Eurofarma #Vaga #Emprego https://t.co/1rgwtpSC42</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:42:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>A R2M Solution, @R2MSolution, oferece 5 bolsas de #doutorado H2020 MSCA em #economia #empresarial e #tecnologia da #informação para colaborar no programa de #pesquisa PHILHUMANS, @PhilHumans, relacionado à #inteligência #artificial.
 📆 31/07/2021.
 ℹ️ https://t.co/J3JwNo1g9x https://t.co/T3TSatlfXm</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:40:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>A Caixa Seguridade disparou nessa tarde!
 As ações subiram 5,56% e estão cotadas a R$ 11,39. 
@@ -2610,51 +4549,93 @@
 #educaçãofinanceira #economia #investimentos #bolsadevalores #mercadofinanceiro</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:35:43 +0000 2021</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Orçamento de 2022 vai respeitar o teto de gastos, afirma Sachsida https://t.co/fmsaTRyt38 
 #orçamento #economia #ministeriodaeconomia #sachsida #teto #ipca #mercadonews #mercadonewsoficial</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:30:57 +0000 2021</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Temos que passar a faca no Sistema S, diz secretário de Guedes sobre bolsa para jovens https://t.co/abSqviBZrX #economia</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:26:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Vamos de boa notícia p/essa sexta?!
 https://t.co/jqPAHKzJPc
@@ -2662,34 +4643,62 @@
 #Economia #Brasil #FechadoComBolsonaro</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:22:15 +0000 2021</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>World Navigator vai zarpar do porto de Viana em viagem inaugural rumo à Grécia https://t.co/SlY3W4WNMU #Economia #MAR #turismo</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:40 +0000 2021</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Acesse https://t.co/O0TBv5Mj7m e saiba mais!
 .
@@ -2698,18 +4707,32 @@
 . https://t.co/vy1xiXehxh</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Acesse https://t.co/TNKW9qUdoA e saiba mais!
 .
@@ -2718,18 +4741,32 @@
 . https://t.co/6i5s5OP0kQ</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Acesse https://t.co/oOnTuuR8VE e saiba mais!
 .
@@ -2738,36 +4775,64 @@
 . https://t.co/uAzAmIC6Ou</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:02:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Pai rico, pai pobre ensina aos leitores como lidar com as finanças e fazer um bom uso da Psicologia do dinheiro. Se vc ainda ñ leu,precisa ler!
 #finanças #Economia #dinheiro #economizar #economias  #livro #livros #leitura #o #book #literatura #ler #books
 https://t.co/ZKW3492V4s</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:00:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>NISSAN VERSA 2021: SEDAN É RENOVADO
 Confira no Diário do Comércio
@@ -2775,128 +4840,21 @@
 https://t.co/B7Lz8MrFQG</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 17:00:22 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Atenção empregadores! Saiba quando deverá realizar o envio da admissão de empregado ao #esocial
-O envio do evento de admissão do empregado (s-2200), ao eSocial deverá ser feito até um dia antes do início das atividades do empregado na empresa. #ficaadica #contabilidade #economia https://t.co/djfOFG3vKJ</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:57:29 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Número de horas trabalhadas cai na UE em 2020 e Portugal tem 3.ª maior queda https://t.co/1QlSFyNizP #Covid-19 #Economia #Emprego</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:52:29 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Apesar das falsas promessas de implementação de políticas liberais na economia, o fato é que o Brasil voltou a cair no Ranking de Liberdade Econômica.
-.
-Veja +: https://t.co/qEC3zhAmxF
-.
-#Economia #LiberdadeEconômica  #EuSouLivres https://t.co/5LLsWtpNJw</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:41:05 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Arthur Lira pressiona relator do IR a evitar prejuízo para prefeituras https://t.co/P1T9JV98Z3 #economia</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:38:18 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DETRAN-BA DIVULGA NOVOS PRAZOS DE SERVIÇOS DE TRÂNSITO #Economia https://t.co/S9RjvoOjQu</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:34:12 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Um dos motivos para ficarmos extremamente felizes com o aumento de lançamentos imobiliários, muitos empregos gerados, muitos mesmo.
-#economia #emprego #construcaocivil 
-https://t.co/lehHHMvlYm</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 16:33:57 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Governo ajudará a achar solução para perdas com geada em cafezais 
-#governofederal #geadas #agrotimes #agronegócio #economia 
-https://t.co/bO5UR0nfMr</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2904,18 +4862,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fri Jul 23 16:31:57 +0000 2021</t>
+          <t>Fri Jul 23 17:00:22 +0000 2021</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A previsão do colapso social da década de 1970 pode acontecer muito mais cedo do que foi predito
-https://t.co/lUS99kPtGA
-Em 1972, uma equipe de pesquisadores do Massachusetts Institute of Technology (MIT) advertiu que a...
-#colapso  #estudo #meioambiente #predito #economia https://t.co/95D1omUlkP</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Atenção empregadores! Saiba quando deverá realizar o envio da admissão de empregado ao #esocial
+O envio do evento de admissão do empregado (s-2200), ao eSocial deverá ser feito até um dia antes do início das atividades do empregado na empresa. #ficaadica #contabilidade #economia https://t.co/djfOFG3vKJ</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
